--- a/excel/finished/wg8#高炉/出铁统计报表/8高炉铁水一级品率精益统计表.xlsx
+++ b/excel/finished/wg8#高炉/出铁统计报表/8高炉铁水一级品率精益统计表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\template\8高炉\炉内报表\cn_zh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\wg-steel\excel\finished\wg8#高炉\出铁统计报表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2119E59B-4384-4E8C-B205-CA4303175DA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81A0219-119D-4758-889A-F97E151ABFBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="-120" windowWidth="27720" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,18 +108,6 @@
     <t>罐</t>
   </si>
   <si>
-    <t>上旬</t>
-  </si>
-  <si>
-    <t>中旬</t>
-  </si>
-  <si>
-    <t>下旬</t>
-  </si>
-  <si>
-    <t>全月</t>
-  </si>
-  <si>
     <t>月度分析</t>
   </si>
   <si>
@@ -144,50 +132,211 @@
     <t>本期母项</t>
   </si>
   <si>
-    <t>一月</t>
-  </si>
-  <si>
-    <t>二月</t>
-  </si>
-  <si>
-    <t>三月</t>
-  </si>
-  <si>
-    <t>四月</t>
-  </si>
-  <si>
-    <t>五月</t>
-  </si>
-  <si>
-    <t>六月</t>
-  </si>
-  <si>
-    <t>七月</t>
-  </si>
-  <si>
-    <t>八月</t>
-  </si>
-  <si>
-    <t>九月</t>
-  </si>
-  <si>
-    <t>十月</t>
-  </si>
-  <si>
-    <t>十一月</t>
-  </si>
-  <si>
-    <t>十二月</t>
-  </si>
-  <si>
-    <t>全年</t>
-  </si>
-  <si>
     <t>version</t>
   </si>
   <si>
     <t>完成情况</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>上旬</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>中旬</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>下旬</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>全月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>一月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>二月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>三月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>四月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>五月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>六月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>七月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>八月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>九月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>十月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>十一月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>十二月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>全年</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -200,7 +349,7 @@
     <numFmt numFmtId="178" formatCode="0.0_ "/>
     <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,19 +386,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
@@ -261,29 +397,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="21"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -301,10 +414,62 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <name val="微软雅黑"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="21"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -623,9 +788,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -633,9 +798,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -648,186 +810,195 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2258,7 +2429,7 @@
   <dimension ref="B1:AE58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2271,1132 +2442,1132 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
+      <c r="B1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
     </row>
     <row r="2" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="61" t="s">
+      <c r="E2" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61" t="s">
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61" t="s">
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="64" t="s">
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="57" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="60"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="47" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47" t="s">
+      <c r="J3" s="40"/>
+      <c r="K3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47" t="s">
+      <c r="L3" s="40"/>
+      <c r="M3" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47" t="s">
+      <c r="N3" s="40"/>
+      <c r="O3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47" t="s">
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47" t="s">
+      <c r="R3" s="40"/>
+      <c r="S3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47" t="s">
+      <c r="T3" s="40"/>
+      <c r="U3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47" t="s">
+      <c r="V3" s="40"/>
+      <c r="W3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47" t="s">
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47" t="s">
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47" t="s">
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="65"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="58"/>
     </row>
     <row r="4" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="60"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="3" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AD4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AE4" s="65"/>
+      <c r="AE4" s="58"/>
     </row>
     <row r="5" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="60"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="W5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="X5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Y5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="Z5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AA5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AB5" s="5" t="s">
+      <c r="AB5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AC5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AD5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AE5" s="4"/>
+      <c r="AE5" s="12"/>
     </row>
     <row r="6" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="3"/>
     </row>
     <row r="7" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="8">
+      <c r="B7" s="13">
         <v>1</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10" t="str">
+      <c r="C7" s="27"/>
+      <c r="D7" s="28" t="str">
         <f t="shared" ref="D7:D8" si="0">IF(ISERROR(F7/G7),"",F7/G7*100)</f>
         <v/>
       </c>
-      <c r="E7" s="11" t="str">
+      <c r="E7" s="27" t="str">
         <f t="shared" ref="E7:E8" si="1">IF(ISERROR(D7/C7),"",IF(D7&gt;=C7,"√","×"))</f>
         <v/>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12" t="str">
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29" t="str">
         <f t="shared" ref="H7:H39" si="2">IF(ISERROR(G7/F7),"",G7-F7)</f>
         <v/>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14">
+      <c r="I7" s="30"/>
+      <c r="J7" s="31">
         <f t="shared" ref="J7:J39" si="3">IF(ISERROR(I7/$H7),0,I7/$H7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="14">
+      <c r="K7" s="14"/>
+      <c r="L7" s="31">
         <f t="shared" ref="L7:L39" si="4">IF(ISERROR(K7/$H7),0,K7/$H7)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="14">
+      <c r="M7" s="14"/>
+      <c r="N7" s="31">
         <f t="shared" ref="N7:N39" si="5">IF(ISERROR(M7/$H7),0,M7/$H7)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="14">
+      <c r="O7" s="15"/>
+      <c r="P7" s="31">
         <f t="shared" ref="P7:P39" si="6">IF(ISERROR(O7/$H7),0,O7/$H7)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="14">
+      <c r="Q7" s="14"/>
+      <c r="R7" s="31">
         <f t="shared" ref="R7:R39" si="7">IF(ISERROR(Q7/$H7),0,Q7/$H7)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="16"/>
-      <c r="T7" s="14">
+      <c r="S7" s="15"/>
+      <c r="T7" s="31">
         <f t="shared" ref="T7:T39" si="8">IF(ISERROR(S7/$H7),0,S7/$H7)</f>
         <v>0</v>
       </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="14">
+      <c r="U7" s="14"/>
+      <c r="V7" s="31">
         <f t="shared" ref="V7:V39" si="9">IF(ISERROR(U7/$H7),0,U7/$H7)</f>
         <v>0</v>
       </c>
-      <c r="W7" s="15"/>
-      <c r="X7" s="14">
+      <c r="W7" s="14"/>
+      <c r="X7" s="31">
         <f t="shared" ref="X7:X39" si="10">IF(ISERROR(W7/$H7),0,W7/$H7)</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="14">
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="31">
         <f t="shared" ref="Z7:Z39" si="11">IF(ISERROR(Y7/$H7),0,Y7/$H7)</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="14">
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="31">
         <f t="shared" ref="AB7:AB39" si="12">IF(ISERROR(AA7/$H7),0,AA7/$H7)</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="14">
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="31">
         <f t="shared" ref="AD7:AD39" si="13">IF(ISERROR(AC7/$H7),0,AC7/$H7)</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="17"/>
+      <c r="AE7" s="16"/>
     </row>
     <row r="8" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="8">
+      <c r="B8" s="13">
         <v>2</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10" t="str">
+      <c r="C8" s="27"/>
+      <c r="D8" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E8" s="11" t="str">
+      <c r="E8" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12" t="str">
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14">
+      <c r="I8" s="30"/>
+      <c r="J8" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="14">
+      <c r="K8" s="14"/>
+      <c r="L8" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="14">
+      <c r="M8" s="14"/>
+      <c r="N8" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O8" s="16"/>
-      <c r="P8" s="14">
+      <c r="O8" s="15"/>
+      <c r="P8" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="14">
+      <c r="Q8" s="14"/>
+      <c r="R8" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S8" s="16"/>
-      <c r="T8" s="14">
+      <c r="S8" s="15"/>
+      <c r="T8" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U8" s="15"/>
-      <c r="V8" s="14">
+      <c r="U8" s="14"/>
+      <c r="V8" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W8" s="15"/>
-      <c r="X8" s="14">
+      <c r="W8" s="14"/>
+      <c r="X8" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="14">
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="14">
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="14">
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="17"/>
+      <c r="AE8" s="16"/>
     </row>
     <row r="9" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="8">
+      <c r="B9" s="13">
         <v>3</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10" t="str">
+      <c r="C9" s="27"/>
+      <c r="D9" s="28" t="str">
         <f t="shared" ref="D9:D41" si="14">IF(ISERROR(F9/G9),"",F9/G9*100)</f>
         <v/>
       </c>
-      <c r="E9" s="11" t="str">
+      <c r="E9" s="27" t="str">
         <f t="shared" ref="E9:E41" si="15">IF(ISERROR(D9/C9),"",IF(D9&gt;=C9,"√","×"))</f>
         <v/>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12" t="str">
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14">
+      <c r="I9" s="30"/>
+      <c r="J9" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="14">
+      <c r="K9" s="14"/>
+      <c r="L9" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="14">
+      <c r="M9" s="14"/>
+      <c r="N9" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="14">
+      <c r="O9" s="15"/>
+      <c r="P9" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="14">
+      <c r="Q9" s="14"/>
+      <c r="R9" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S9" s="16"/>
-      <c r="T9" s="14">
+      <c r="S9" s="15"/>
+      <c r="T9" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U9" s="15"/>
-      <c r="V9" s="14">
+      <c r="U9" s="14"/>
+      <c r="V9" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W9" s="15"/>
-      <c r="X9" s="14">
+      <c r="W9" s="14"/>
+      <c r="X9" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="14">
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="14">
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="14">
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="17"/>
+      <c r="AE9" s="16"/>
     </row>
     <row r="10" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="8">
+      <c r="B10" s="13">
         <v>4</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10" t="str">
+      <c r="C10" s="27"/>
+      <c r="D10" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E10" s="11" t="str">
+      <c r="E10" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12" t="str">
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="14">
+      <c r="I10" s="14"/>
+      <c r="J10" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="14">
+      <c r="K10" s="14"/>
+      <c r="L10" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="14">
+      <c r="M10" s="14"/>
+      <c r="N10" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="14">
+      <c r="O10" s="15"/>
+      <c r="P10" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="14">
+      <c r="Q10" s="14"/>
+      <c r="R10" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S10" s="16"/>
-      <c r="T10" s="14">
+      <c r="S10" s="15"/>
+      <c r="T10" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U10" s="15"/>
-      <c r="V10" s="14">
+      <c r="U10" s="14"/>
+      <c r="V10" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W10" s="15"/>
-      <c r="X10" s="14">
+      <c r="W10" s="14"/>
+      <c r="X10" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="14">
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="14">
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="14">
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="17"/>
+      <c r="AE10" s="16"/>
     </row>
     <row r="11" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="8">
+      <c r="B11" s="13">
         <v>5</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10" t="str">
+      <c r="C11" s="27"/>
+      <c r="D11" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E11" s="11" t="str">
+      <c r="E11" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12" t="str">
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="14">
+      <c r="I11" s="14"/>
+      <c r="J11" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="14">
+      <c r="K11" s="14"/>
+      <c r="L11" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="14">
+      <c r="M11" s="14"/>
+      <c r="N11" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O11" s="16"/>
-      <c r="P11" s="14">
+      <c r="O11" s="15"/>
+      <c r="P11" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="14">
+      <c r="Q11" s="14"/>
+      <c r="R11" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S11" s="16"/>
-      <c r="T11" s="14">
+      <c r="S11" s="15"/>
+      <c r="T11" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U11" s="15"/>
-      <c r="V11" s="14">
+      <c r="U11" s="14"/>
+      <c r="V11" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W11" s="15"/>
-      <c r="X11" s="14">
+      <c r="W11" s="14"/>
+      <c r="X11" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="14">
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="14">
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="14">
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="17"/>
+      <c r="AE11" s="16"/>
     </row>
     <row r="12" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="8">
+      <c r="B12" s="13">
         <v>6</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10" t="str">
+      <c r="C12" s="27"/>
+      <c r="D12" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E12" s="11" t="str">
+      <c r="E12" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12" t="str">
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="14">
+      <c r="I12" s="14"/>
+      <c r="J12" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="14">
+      <c r="K12" s="14"/>
+      <c r="L12" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="14">
+      <c r="M12" s="14"/>
+      <c r="N12" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O12" s="16"/>
-      <c r="P12" s="14">
+      <c r="O12" s="15"/>
+      <c r="P12" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="14">
+      <c r="Q12" s="14"/>
+      <c r="R12" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S12" s="16"/>
-      <c r="T12" s="14">
+      <c r="S12" s="15"/>
+      <c r="T12" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U12" s="15"/>
-      <c r="V12" s="14">
+      <c r="U12" s="14"/>
+      <c r="V12" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W12" s="15"/>
-      <c r="X12" s="14">
+      <c r="W12" s="14"/>
+      <c r="X12" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="14">
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="14">
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="14">
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE12" s="17"/>
+      <c r="AE12" s="16"/>
     </row>
     <row r="13" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="8">
+      <c r="B13" s="13">
         <v>7</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10" t="str">
+      <c r="C13" s="27"/>
+      <c r="D13" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E13" s="11" t="str">
+      <c r="E13" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12" t="str">
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="14">
+      <c r="I13" s="14"/>
+      <c r="J13" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="14">
+      <c r="K13" s="14"/>
+      <c r="L13" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="14">
+      <c r="M13" s="14"/>
+      <c r="N13" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O13" s="16"/>
-      <c r="P13" s="14">
+      <c r="O13" s="15"/>
+      <c r="P13" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="14">
+      <c r="Q13" s="14"/>
+      <c r="R13" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S13" s="16"/>
-      <c r="T13" s="14">
+      <c r="S13" s="15"/>
+      <c r="T13" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U13" s="15"/>
-      <c r="V13" s="14">
+      <c r="U13" s="14"/>
+      <c r="V13" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W13" s="15"/>
-      <c r="X13" s="14">
+      <c r="W13" s="14"/>
+      <c r="X13" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="14">
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="14">
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="14">
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="17"/>
+      <c r="AE13" s="16"/>
     </row>
     <row r="14" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="8">
+      <c r="B14" s="13">
         <v>8</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10" t="str">
+      <c r="C14" s="27"/>
+      <c r="D14" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E14" s="11" t="str">
+      <c r="E14" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12" t="str">
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="14">
+      <c r="I14" s="14"/>
+      <c r="J14" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="14">
+      <c r="K14" s="14"/>
+      <c r="L14" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="14">
+      <c r="M14" s="14"/>
+      <c r="N14" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O14" s="16"/>
-      <c r="P14" s="14">
+      <c r="O14" s="15"/>
+      <c r="P14" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="14">
+      <c r="Q14" s="14"/>
+      <c r="R14" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S14" s="16"/>
-      <c r="T14" s="14">
+      <c r="S14" s="15"/>
+      <c r="T14" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U14" s="15"/>
-      <c r="V14" s="14">
+      <c r="U14" s="14"/>
+      <c r="V14" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W14" s="15"/>
-      <c r="X14" s="14">
+      <c r="W14" s="14"/>
+      <c r="X14" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="14">
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="14">
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="14">
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE14" s="17"/>
+      <c r="AE14" s="16"/>
     </row>
     <row r="15" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="8">
+      <c r="B15" s="13">
         <v>9</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10" t="str">
+      <c r="C15" s="27"/>
+      <c r="D15" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E15" s="11" t="str">
+      <c r="E15" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12" t="str">
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="14">
+      <c r="I15" s="14"/>
+      <c r="J15" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="14">
+      <c r="K15" s="14"/>
+      <c r="L15" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="14">
+      <c r="M15" s="14"/>
+      <c r="N15" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O15" s="16"/>
-      <c r="P15" s="14">
+      <c r="O15" s="15"/>
+      <c r="P15" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="14">
+      <c r="Q15" s="14"/>
+      <c r="R15" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S15" s="16"/>
-      <c r="T15" s="14">
+      <c r="S15" s="15"/>
+      <c r="T15" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U15" s="15"/>
-      <c r="V15" s="14">
+      <c r="U15" s="14"/>
+      <c r="V15" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W15" s="15"/>
-      <c r="X15" s="14">
+      <c r="W15" s="14"/>
+      <c r="X15" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="14">
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="14">
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="14">
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="17"/>
+      <c r="AE15" s="16"/>
     </row>
     <row r="16" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="8">
+      <c r="B16" s="13">
         <v>10</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10" t="str">
+      <c r="C16" s="27"/>
+      <c r="D16" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E16" s="11" t="str">
+      <c r="E16" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12" t="str">
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="14">
+      <c r="I16" s="14"/>
+      <c r="J16" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="14">
+      <c r="K16" s="14"/>
+      <c r="L16" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="14">
+      <c r="M16" s="14"/>
+      <c r="N16" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="14">
+      <c r="O16" s="15"/>
+      <c r="P16" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="14">
+      <c r="Q16" s="14"/>
+      <c r="R16" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S16" s="16"/>
-      <c r="T16" s="14">
+      <c r="S16" s="15"/>
+      <c r="T16" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U16" s="15"/>
-      <c r="V16" s="14">
+      <c r="U16" s="14"/>
+      <c r="V16" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W16" s="15"/>
-      <c r="X16" s="14">
+      <c r="W16" s="14"/>
+      <c r="X16" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="14">
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="14">
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="14">
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="17"/>
+      <c r="AE16" s="16"/>
     </row>
     <row r="17" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="9" t="str">
+      <c r="B17" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="32" t="str">
         <f>IF(ISERROR(AVERAGE(C7:C16)),"",AVERAGE(C7:C16))</f>
         <v/>
       </c>
-      <c r="D17" s="10" t="str">
+      <c r="D17" s="33" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E17" s="11" t="str">
+      <c r="E17" s="32" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="34">
         <f>SUM(F7:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="34">
         <f t="shared" ref="G17:H17" si="16">SUM(G7:G16)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="34">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3404,7 +3575,7 @@
         <f t="shared" ref="I17:AC17" si="17">SUM(I7:I16)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="31">
         <f t="shared" ref="J17:J41" si="18">IF($H17=0,0,I17/$H17)</f>
         <v>0</v>
       </c>
@@ -3412,7 +3583,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="31">
         <f t="shared" ref="L17:L41" si="19">IF($H17=0,0,K17/$H17)</f>
         <v>0</v>
       </c>
@@ -3420,7 +3591,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17" s="31">
         <f t="shared" ref="N17:N41" si="20">IF($H17=0,0,M17/$H17)</f>
         <v>0</v>
       </c>
@@ -3428,7 +3599,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P17" s="20">
+      <c r="P17" s="31">
         <f t="shared" ref="P17:P41" si="21">IF($H17=0,0,O17/$H17)</f>
         <v>0</v>
       </c>
@@ -3436,7 +3607,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R17" s="31">
         <f t="shared" ref="R17:R41" si="22">IF($H17=0,0,Q17/$H17)</f>
         <v>0</v>
       </c>
@@ -3444,7 +3615,7 @@
         <f>SUM(S7:S16)</f>
         <v>0</v>
       </c>
-      <c r="T17" s="20">
+      <c r="T17" s="31">
         <f t="shared" ref="T17:T41" si="23">IF($H17=0,0,S17/$H17)</f>
         <v>0</v>
       </c>
@@ -3452,7 +3623,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="V17" s="20">
+      <c r="V17" s="31">
         <f t="shared" ref="V17:V41" si="24">IF($H17=0,0,U17/$H17)</f>
         <v>0</v>
       </c>
@@ -3460,7 +3631,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="X17" s="20">
+      <c r="X17" s="31">
         <f t="shared" ref="X17:X41" si="25">IF($H17=0,0,W17/$H17)</f>
         <v>0</v>
       </c>
@@ -3468,7 +3639,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="20">
+      <c r="Z17" s="31">
         <f t="shared" ref="Z17:Z41" si="26">IF($H17=0,0,Y17/$H17)</f>
         <v>0</v>
       </c>
@@ -3476,7 +3647,7 @@
         <f>SUM(AA7:AA16)</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="20">
+      <c r="AB17" s="31">
         <f t="shared" ref="AB17:AB41" si="27">IF($H17=0,0,AA17/$H17)</f>
         <v>0</v>
       </c>
@@ -3484,797 +3655,797 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AD17" s="20">
+      <c r="AD17" s="31">
         <f t="shared" ref="AD17:AD41" si="28">IF($H17=0,0,AC17/$H17)</f>
         <v>0</v>
       </c>
-      <c r="AE17" s="17"/>
+      <c r="AE17" s="16"/>
     </row>
     <row r="18" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="8">
+      <c r="B18" s="13">
         <v>11</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10" t="str">
+      <c r="C18" s="27"/>
+      <c r="D18" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E18" s="11" t="str">
+      <c r="E18" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12" t="str">
+      <c r="F18" s="35"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="14">
+      <c r="I18" s="14"/>
+      <c r="J18" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="14">
+      <c r="K18" s="14"/>
+      <c r="L18" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M18" s="15"/>
-      <c r="N18" s="14">
+      <c r="M18" s="14"/>
+      <c r="N18" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O18" s="16"/>
-      <c r="P18" s="14">
+      <c r="O18" s="15"/>
+      <c r="P18" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="14">
+      <c r="Q18" s="14"/>
+      <c r="R18" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S18" s="16"/>
-      <c r="T18" s="14">
+      <c r="S18" s="15"/>
+      <c r="T18" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U18" s="15"/>
-      <c r="V18" s="14">
+      <c r="U18" s="14"/>
+      <c r="V18" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W18" s="15"/>
-      <c r="X18" s="14">
+      <c r="W18" s="14"/>
+      <c r="X18" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="14">
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="14">
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="14">
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="17"/>
+      <c r="AE18" s="16"/>
     </row>
     <row r="19" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="8">
+      <c r="B19" s="13">
         <v>12</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10" t="str">
+      <c r="C19" s="27"/>
+      <c r="D19" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E19" s="11" t="str">
+      <c r="E19" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12" t="str">
+      <c r="F19" s="35"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="14">
+      <c r="I19" s="14"/>
+      <c r="J19" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="14">
+      <c r="K19" s="14"/>
+      <c r="L19" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="14">
+      <c r="M19" s="14"/>
+      <c r="N19" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O19" s="16"/>
-      <c r="P19" s="14">
+      <c r="O19" s="15"/>
+      <c r="P19" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="14">
+      <c r="Q19" s="14"/>
+      <c r="R19" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S19" s="16"/>
-      <c r="T19" s="14">
+      <c r="S19" s="15"/>
+      <c r="T19" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U19" s="15"/>
-      <c r="V19" s="14">
+      <c r="U19" s="14"/>
+      <c r="V19" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W19" s="15"/>
-      <c r="X19" s="14">
+      <c r="W19" s="14"/>
+      <c r="X19" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="14">
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="14">
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="14">
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="17"/>
+      <c r="AE19" s="16"/>
     </row>
     <row r="20" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="8">
+      <c r="B20" s="13">
         <v>13</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10" t="str">
+      <c r="C20" s="27"/>
+      <c r="D20" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E20" s="11" t="str">
+      <c r="E20" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12" t="str">
+      <c r="F20" s="35"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="14">
+      <c r="I20" s="14"/>
+      <c r="J20" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="14">
+      <c r="K20" s="14"/>
+      <c r="L20" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="14">
+      <c r="M20" s="14"/>
+      <c r="N20" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O20" s="16"/>
-      <c r="P20" s="14">
+      <c r="O20" s="15"/>
+      <c r="P20" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="14">
+      <c r="Q20" s="14"/>
+      <c r="R20" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S20" s="16"/>
-      <c r="T20" s="14">
+      <c r="S20" s="15"/>
+      <c r="T20" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U20" s="15"/>
-      <c r="V20" s="14">
+      <c r="U20" s="14"/>
+      <c r="V20" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W20" s="15"/>
-      <c r="X20" s="14">
+      <c r="W20" s="14"/>
+      <c r="X20" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="14">
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="14">
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="14">
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="17"/>
+      <c r="AE20" s="16"/>
     </row>
     <row r="21" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="8">
+      <c r="B21" s="13">
         <v>14</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10" t="str">
+      <c r="C21" s="27"/>
+      <c r="D21" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E21" s="11" t="str">
+      <c r="E21" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12" t="str">
+      <c r="F21" s="35"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="14">
+      <c r="I21" s="14"/>
+      <c r="J21" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="14">
+      <c r="K21" s="14"/>
+      <c r="L21" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M21" s="15"/>
-      <c r="N21" s="14">
+      <c r="M21" s="14"/>
+      <c r="N21" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O21" s="16"/>
-      <c r="P21" s="14">
+      <c r="O21" s="15"/>
+      <c r="P21" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="14">
+      <c r="Q21" s="14"/>
+      <c r="R21" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S21" s="16"/>
-      <c r="T21" s="14">
+      <c r="S21" s="15"/>
+      <c r="T21" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U21" s="15"/>
-      <c r="V21" s="14">
+      <c r="U21" s="14"/>
+      <c r="V21" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W21" s="15"/>
-      <c r="X21" s="14">
+      <c r="W21" s="14"/>
+      <c r="X21" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="14">
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="14">
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="14">
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="17"/>
+      <c r="AE21" s="16"/>
     </row>
     <row r="22" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="8">
+      <c r="B22" s="13">
         <v>15</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10" t="str">
+      <c r="C22" s="27"/>
+      <c r="D22" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E22" s="11" t="str">
+      <c r="E22" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12" t="str">
+      <c r="F22" s="35"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="14">
+      <c r="I22" s="14"/>
+      <c r="J22" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="14">
+      <c r="K22" s="14"/>
+      <c r="L22" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M22" s="15"/>
-      <c r="N22" s="14">
+      <c r="M22" s="14"/>
+      <c r="N22" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O22" s="16"/>
-      <c r="P22" s="14">
+      <c r="O22" s="15"/>
+      <c r="P22" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="14">
+      <c r="Q22" s="14"/>
+      <c r="R22" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S22" s="16"/>
-      <c r="T22" s="14">
+      <c r="S22" s="15"/>
+      <c r="T22" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U22" s="15"/>
-      <c r="V22" s="14">
+      <c r="U22" s="14"/>
+      <c r="V22" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W22" s="15"/>
-      <c r="X22" s="14">
+      <c r="W22" s="14"/>
+      <c r="X22" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="14">
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="14">
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="14">
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="17"/>
+      <c r="AE22" s="16"/>
     </row>
     <row r="23" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="8">
+      <c r="B23" s="13">
         <v>16</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10" t="str">
+      <c r="C23" s="27"/>
+      <c r="D23" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E23" s="11" t="str">
+      <c r="E23" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12" t="str">
+      <c r="F23" s="35"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="14">
+      <c r="I23" s="14"/>
+      <c r="J23" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K23" s="15"/>
-      <c r="L23" s="14">
+      <c r="K23" s="14"/>
+      <c r="L23" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M23" s="15"/>
-      <c r="N23" s="14">
+      <c r="M23" s="14"/>
+      <c r="N23" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O23" s="16"/>
-      <c r="P23" s="14">
+      <c r="O23" s="15"/>
+      <c r="P23" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="14">
+      <c r="Q23" s="14"/>
+      <c r="R23" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S23" s="16"/>
-      <c r="T23" s="14">
+      <c r="S23" s="15"/>
+      <c r="T23" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U23" s="15"/>
-      <c r="V23" s="14">
+      <c r="U23" s="14"/>
+      <c r="V23" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W23" s="15"/>
-      <c r="X23" s="14">
+      <c r="W23" s="14"/>
+      <c r="X23" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="14">
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="14">
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="14">
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE23" s="17"/>
+      <c r="AE23" s="16"/>
     </row>
     <row r="24" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="8">
+      <c r="B24" s="13">
         <v>17</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10" t="str">
+      <c r="C24" s="27"/>
+      <c r="D24" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E24" s="11" t="str">
+      <c r="E24" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12" t="str">
+      <c r="F24" s="35"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="14">
+      <c r="I24" s="14"/>
+      <c r="J24" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="14">
+      <c r="K24" s="14"/>
+      <c r="L24" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M24" s="15"/>
-      <c r="N24" s="14">
+      <c r="M24" s="14"/>
+      <c r="N24" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O24" s="16"/>
-      <c r="P24" s="14">
+      <c r="O24" s="15"/>
+      <c r="P24" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="14">
+      <c r="Q24" s="14"/>
+      <c r="R24" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S24" s="16"/>
-      <c r="T24" s="14">
+      <c r="S24" s="15"/>
+      <c r="T24" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U24" s="15"/>
-      <c r="V24" s="14">
+      <c r="U24" s="14"/>
+      <c r="V24" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W24" s="15"/>
-      <c r="X24" s="14">
+      <c r="W24" s="14"/>
+      <c r="X24" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="14">
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="14">
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="14">
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE24" s="17"/>
+      <c r="AE24" s="16"/>
     </row>
     <row r="25" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="8">
+      <c r="B25" s="13">
         <v>18</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10" t="str">
+      <c r="C25" s="27"/>
+      <c r="D25" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E25" s="11" t="str">
+      <c r="E25" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12" t="str">
+      <c r="F25" s="35"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="14">
+      <c r="I25" s="14"/>
+      <c r="J25" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K25" s="15"/>
-      <c r="L25" s="14">
+      <c r="K25" s="14"/>
+      <c r="L25" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M25" s="15"/>
-      <c r="N25" s="14">
+      <c r="M25" s="14"/>
+      <c r="N25" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O25" s="16"/>
-      <c r="P25" s="14">
+      <c r="O25" s="15"/>
+      <c r="P25" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="14">
+      <c r="Q25" s="14"/>
+      <c r="R25" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S25" s="16"/>
-      <c r="T25" s="14">
+      <c r="S25" s="15"/>
+      <c r="T25" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U25" s="15"/>
-      <c r="V25" s="14">
+      <c r="U25" s="14"/>
+      <c r="V25" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W25" s="15"/>
-      <c r="X25" s="14">
+      <c r="W25" s="14"/>
+      <c r="X25" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="14">
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="14">
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="14">
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE25" s="17"/>
+      <c r="AE25" s="16"/>
     </row>
     <row r="26" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="8">
+      <c r="B26" s="13">
         <v>19</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10" t="str">
+      <c r="C26" s="27"/>
+      <c r="D26" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E26" s="11" t="str">
+      <c r="E26" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12" t="str">
+      <c r="F26" s="35"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="14">
+      <c r="I26" s="14"/>
+      <c r="J26" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K26" s="15"/>
-      <c r="L26" s="14">
+      <c r="K26" s="14"/>
+      <c r="L26" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M26" s="15"/>
-      <c r="N26" s="14">
+      <c r="M26" s="14"/>
+      <c r="N26" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O26" s="16"/>
-      <c r="P26" s="14">
+      <c r="O26" s="15"/>
+      <c r="P26" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="14">
+      <c r="Q26" s="14"/>
+      <c r="R26" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S26" s="16"/>
-      <c r="T26" s="14">
+      <c r="S26" s="15"/>
+      <c r="T26" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U26" s="15"/>
-      <c r="V26" s="14">
+      <c r="U26" s="14"/>
+      <c r="V26" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W26" s="15"/>
-      <c r="X26" s="14">
+      <c r="W26" s="14"/>
+      <c r="X26" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="14">
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="14">
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="14">
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="17"/>
+      <c r="AE26" s="16"/>
     </row>
     <row r="27" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="8">
+      <c r="B27" s="13">
         <v>20</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10" t="str">
+      <c r="C27" s="27"/>
+      <c r="D27" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E27" s="11" t="str">
+      <c r="E27" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12" t="str">
+      <c r="F27" s="35"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="14">
+      <c r="I27" s="14"/>
+      <c r="J27" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="14">
+      <c r="K27" s="14"/>
+      <c r="L27" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M27" s="15"/>
-      <c r="N27" s="14">
+      <c r="M27" s="14"/>
+      <c r="N27" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O27" s="16"/>
-      <c r="P27" s="14">
+      <c r="O27" s="15"/>
+      <c r="P27" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="14">
+      <c r="Q27" s="14"/>
+      <c r="R27" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S27" s="16"/>
-      <c r="T27" s="14">
+      <c r="S27" s="15"/>
+      <c r="T27" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U27" s="15"/>
-      <c r="V27" s="14">
+      <c r="U27" s="14"/>
+      <c r="V27" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W27" s="15"/>
-      <c r="X27" s="14">
+      <c r="W27" s="14"/>
+      <c r="X27" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="14">
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="14">
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="14">
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE27" s="17"/>
+      <c r="AE27" s="16"/>
     </row>
     <row r="28" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="9" t="str">
+      <c r="B28" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="32" t="str">
         <f>IF(ISERROR(AVERAGE(C18:C27)),"",AVERAGE(C18:C27))</f>
         <v/>
       </c>
-      <c r="D28" s="10" t="str">
+      <c r="D28" s="33" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E28" s="11" t="str">
+      <c r="E28" s="32" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="34">
         <f>SUM(F18:F27)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="34">
         <f t="shared" ref="G28:H28" si="29">SUM(G18:G27)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="34">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -4282,7 +4453,7 @@
         <f t="shared" ref="I28:AC28" si="30">SUM(I18:I27)</f>
         <v>0</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4290,7 +4461,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="L28" s="20">
+      <c r="L28" s="31">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4298,7 +4469,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="N28" s="20">
+      <c r="N28" s="31">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -4306,7 +4477,7 @@
         <f>SUM(O18:O27)</f>
         <v>0</v>
       </c>
-      <c r="P28" s="20">
+      <c r="P28" s="31">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -4314,7 +4485,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="R28" s="20">
+      <c r="R28" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4322,7 +4493,7 @@
         <f>SUM(S18:S27)</f>
         <v>0</v>
       </c>
-      <c r="T28" s="20">
+      <c r="T28" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -4330,7 +4501,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V28" s="20">
+      <c r="V28" s="31">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -4338,7 +4509,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="X28" s="20">
+      <c r="X28" s="31">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
@@ -4346,7 +4517,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="Z28" s="20">
+      <c r="Z28" s="31">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
@@ -4354,7 +4525,7 @@
         <f>SUM(AA18:AA27)</f>
         <v>0</v>
       </c>
-      <c r="AB28" s="20">
+      <c r="AB28" s="31">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -4362,873 +4533,873 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AD28" s="20">
+      <c r="AD28" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AE28" s="17"/>
+      <c r="AE28" s="16"/>
     </row>
     <row r="29" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="8">
+      <c r="B29" s="13">
         <v>21</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10" t="str">
+      <c r="C29" s="27"/>
+      <c r="D29" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E29" s="11" t="str">
+      <c r="E29" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12" t="str">
+      <c r="F29" s="35"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="14">
+      <c r="I29" s="14"/>
+      <c r="J29" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K29" s="15"/>
-      <c r="L29" s="14">
+      <c r="K29" s="14"/>
+      <c r="L29" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M29" s="15"/>
-      <c r="N29" s="14">
+      <c r="M29" s="14"/>
+      <c r="N29" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O29" s="16"/>
-      <c r="P29" s="14">
+      <c r="O29" s="15"/>
+      <c r="P29" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="14">
+      <c r="Q29" s="14"/>
+      <c r="R29" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S29" s="16"/>
-      <c r="T29" s="14">
+      <c r="S29" s="15"/>
+      <c r="T29" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U29" s="15"/>
-      <c r="V29" s="14">
+      <c r="U29" s="14"/>
+      <c r="V29" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W29" s="15"/>
-      <c r="X29" s="14">
+      <c r="W29" s="14"/>
+      <c r="X29" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="14">
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="14">
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC29" s="15"/>
-      <c r="AD29" s="14">
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE29" s="17"/>
+      <c r="AE29" s="16"/>
     </row>
     <row r="30" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="8">
+      <c r="B30" s="13">
         <v>22</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10" t="str">
+      <c r="C30" s="27"/>
+      <c r="D30" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E30" s="11" t="str">
+      <c r="E30" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12" t="str">
+      <c r="F30" s="35"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="14">
+      <c r="I30" s="14"/>
+      <c r="J30" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K30" s="15"/>
-      <c r="L30" s="14">
+      <c r="K30" s="14"/>
+      <c r="L30" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="14">
+      <c r="M30" s="14"/>
+      <c r="N30" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O30" s="16"/>
-      <c r="P30" s="14">
+      <c r="O30" s="15"/>
+      <c r="P30" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="14">
+      <c r="Q30" s="14"/>
+      <c r="R30" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S30" s="16"/>
-      <c r="T30" s="14">
+      <c r="S30" s="15"/>
+      <c r="T30" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U30" s="15"/>
-      <c r="V30" s="14">
+      <c r="U30" s="14"/>
+      <c r="V30" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W30" s="15"/>
-      <c r="X30" s="14">
+      <c r="W30" s="14"/>
+      <c r="X30" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="14">
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="14">
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="14">
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE30" s="17"/>
+      <c r="AE30" s="16"/>
     </row>
     <row r="31" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="8">
+      <c r="B31" s="13">
         <v>23</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10" t="str">
+      <c r="C31" s="27"/>
+      <c r="D31" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E31" s="11" t="str">
+      <c r="E31" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12" t="str">
+      <c r="F31" s="35"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="14">
+      <c r="I31" s="14"/>
+      <c r="J31" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K31" s="15"/>
-      <c r="L31" s="14">
+      <c r="K31" s="14"/>
+      <c r="L31" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M31" s="15"/>
-      <c r="N31" s="14">
+      <c r="M31" s="14"/>
+      <c r="N31" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O31" s="16"/>
-      <c r="P31" s="14">
+      <c r="O31" s="15"/>
+      <c r="P31" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="14">
+      <c r="Q31" s="14"/>
+      <c r="R31" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S31" s="16"/>
-      <c r="T31" s="14">
+      <c r="S31" s="15"/>
+      <c r="T31" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U31" s="15"/>
-      <c r="V31" s="14">
+      <c r="U31" s="14"/>
+      <c r="V31" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W31" s="15"/>
-      <c r="X31" s="14">
+      <c r="W31" s="14"/>
+      <c r="X31" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="14">
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="14">
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC31" s="15"/>
-      <c r="AD31" s="14">
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE31" s="17"/>
+      <c r="AE31" s="16"/>
     </row>
     <row r="32" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="8">
+      <c r="B32" s="13">
         <v>24</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10" t="str">
+      <c r="C32" s="27"/>
+      <c r="D32" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E32" s="11" t="str">
+      <c r="E32" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12" t="str">
+      <c r="F32" s="35"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I32" s="15"/>
-      <c r="J32" s="14">
+      <c r="I32" s="14"/>
+      <c r="J32" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K32" s="15"/>
-      <c r="L32" s="14">
+      <c r="K32" s="14"/>
+      <c r="L32" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M32" s="15"/>
-      <c r="N32" s="14">
+      <c r="M32" s="14"/>
+      <c r="N32" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O32" s="16"/>
-      <c r="P32" s="14">
+      <c r="O32" s="15"/>
+      <c r="P32" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="14">
+      <c r="Q32" s="14"/>
+      <c r="R32" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S32" s="16"/>
-      <c r="T32" s="14">
+      <c r="S32" s="15"/>
+      <c r="T32" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U32" s="15"/>
-      <c r="V32" s="14">
+      <c r="U32" s="14"/>
+      <c r="V32" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W32" s="15"/>
-      <c r="X32" s="14">
+      <c r="W32" s="14"/>
+      <c r="X32" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="14">
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="14">
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC32" s="15"/>
-      <c r="AD32" s="14">
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE32" s="17"/>
+      <c r="AE32" s="16"/>
     </row>
     <row r="33" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="8">
+      <c r="B33" s="13">
         <v>25</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10" t="str">
+      <c r="C33" s="27"/>
+      <c r="D33" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E33" s="11" t="str">
+      <c r="E33" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12" t="str">
+      <c r="F33" s="35"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I33" s="15"/>
-      <c r="J33" s="14">
+      <c r="I33" s="14"/>
+      <c r="J33" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K33" s="15"/>
-      <c r="L33" s="14">
+      <c r="K33" s="14"/>
+      <c r="L33" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M33" s="15"/>
-      <c r="N33" s="14">
+      <c r="M33" s="14"/>
+      <c r="N33" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O33" s="16"/>
-      <c r="P33" s="14">
+      <c r="O33" s="15"/>
+      <c r="P33" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="14">
+      <c r="Q33" s="14"/>
+      <c r="R33" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S33" s="16"/>
-      <c r="T33" s="14">
+      <c r="S33" s="15"/>
+      <c r="T33" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U33" s="15"/>
-      <c r="V33" s="14">
+      <c r="U33" s="14"/>
+      <c r="V33" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W33" s="15"/>
-      <c r="X33" s="14">
+      <c r="W33" s="14"/>
+      <c r="X33" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="15"/>
-      <c r="Z33" s="14">
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="14">
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC33" s="15"/>
-      <c r="AD33" s="14">
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE33" s="17"/>
+      <c r="AE33" s="16"/>
     </row>
     <row r="34" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="8">
+      <c r="B34" s="13">
         <v>26</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10" t="str">
+      <c r="C34" s="27"/>
+      <c r="D34" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E34" s="11" t="str">
+      <c r="E34" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12" t="str">
+      <c r="F34" s="35"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I34" s="15"/>
-      <c r="J34" s="14">
+      <c r="I34" s="14"/>
+      <c r="J34" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K34" s="15"/>
-      <c r="L34" s="14">
+      <c r="K34" s="14"/>
+      <c r="L34" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M34" s="15"/>
-      <c r="N34" s="14">
+      <c r="M34" s="14"/>
+      <c r="N34" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O34" s="16"/>
-      <c r="P34" s="14">
+      <c r="O34" s="15"/>
+      <c r="P34" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="14">
+      <c r="Q34" s="14"/>
+      <c r="R34" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S34" s="16"/>
-      <c r="T34" s="14">
+      <c r="S34" s="15"/>
+      <c r="T34" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U34" s="15"/>
-      <c r="V34" s="14">
+      <c r="U34" s="14"/>
+      <c r="V34" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W34" s="15"/>
-      <c r="X34" s="14">
+      <c r="W34" s="14"/>
+      <c r="X34" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="15"/>
-      <c r="Z34" s="14">
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="14">
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC34" s="15"/>
-      <c r="AD34" s="14">
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE34" s="17"/>
+      <c r="AE34" s="16"/>
     </row>
     <row r="35" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="8">
+      <c r="B35" s="13">
         <v>27</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10" t="str">
+      <c r="C35" s="27"/>
+      <c r="D35" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E35" s="11" t="str">
+      <c r="E35" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12" t="str">
+      <c r="F35" s="35"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="14">
+      <c r="I35" s="14"/>
+      <c r="J35" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K35" s="15"/>
-      <c r="L35" s="14">
+      <c r="K35" s="14"/>
+      <c r="L35" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M35" s="15"/>
-      <c r="N35" s="14">
+      <c r="M35" s="14"/>
+      <c r="N35" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O35" s="16"/>
-      <c r="P35" s="14">
+      <c r="O35" s="15"/>
+      <c r="P35" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="14">
+      <c r="Q35" s="14"/>
+      <c r="R35" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S35" s="16"/>
-      <c r="T35" s="14">
+      <c r="S35" s="15"/>
+      <c r="T35" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U35" s="15"/>
-      <c r="V35" s="14">
+      <c r="U35" s="14"/>
+      <c r="V35" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W35" s="15"/>
-      <c r="X35" s="14">
+      <c r="W35" s="14"/>
+      <c r="X35" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y35" s="15"/>
-      <c r="Z35" s="14">
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="14">
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC35" s="15"/>
-      <c r="AD35" s="14">
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE35" s="17"/>
+      <c r="AE35" s="16"/>
     </row>
     <row r="36" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="8">
+      <c r="B36" s="13">
         <v>28</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10" t="str">
+      <c r="C36" s="27"/>
+      <c r="D36" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E36" s="11" t="str">
+      <c r="E36" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12" t="str">
+      <c r="F36" s="35"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I36" s="15"/>
-      <c r="J36" s="14">
+      <c r="I36" s="14"/>
+      <c r="J36" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K36" s="15"/>
-      <c r="L36" s="14">
+      <c r="K36" s="14"/>
+      <c r="L36" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M36" s="15"/>
-      <c r="N36" s="14">
+      <c r="M36" s="14"/>
+      <c r="N36" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O36" s="16"/>
-      <c r="P36" s="14">
+      <c r="O36" s="15"/>
+      <c r="P36" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="14">
+      <c r="Q36" s="14"/>
+      <c r="R36" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S36" s="16"/>
-      <c r="T36" s="14">
+      <c r="S36" s="15"/>
+      <c r="T36" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U36" s="15"/>
-      <c r="V36" s="14">
+      <c r="U36" s="14"/>
+      <c r="V36" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W36" s="15"/>
-      <c r="X36" s="14">
+      <c r="W36" s="14"/>
+      <c r="X36" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y36" s="15"/>
-      <c r="Z36" s="14">
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA36" s="16"/>
-      <c r="AB36" s="14">
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC36" s="15"/>
-      <c r="AD36" s="14">
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE36" s="17"/>
+      <c r="AE36" s="16"/>
     </row>
     <row r="37" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="8">
+      <c r="B37" s="13">
         <v>29</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10" t="str">
+      <c r="C37" s="27"/>
+      <c r="D37" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E37" s="11" t="str">
+      <c r="E37" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12" t="str">
+      <c r="F37" s="35"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I37" s="15"/>
-      <c r="J37" s="14">
+      <c r="I37" s="14"/>
+      <c r="J37" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K37" s="15"/>
-      <c r="L37" s="14">
+      <c r="K37" s="14"/>
+      <c r="L37" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M37" s="15"/>
-      <c r="N37" s="14">
+      <c r="M37" s="14"/>
+      <c r="N37" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O37" s="16"/>
-      <c r="P37" s="14">
+      <c r="O37" s="15"/>
+      <c r="P37" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="14">
+      <c r="Q37" s="14"/>
+      <c r="R37" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S37" s="16"/>
-      <c r="T37" s="14">
+      <c r="S37" s="15"/>
+      <c r="T37" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U37" s="15"/>
-      <c r="V37" s="14">
+      <c r="U37" s="14"/>
+      <c r="V37" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W37" s="15"/>
-      <c r="X37" s="14">
+      <c r="W37" s="14"/>
+      <c r="X37" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y37" s="15"/>
-      <c r="Z37" s="14">
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="14">
+      <c r="AA37" s="15"/>
+      <c r="AB37" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC37" s="15"/>
-      <c r="AD37" s="14">
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE37" s="17"/>
+      <c r="AE37" s="16"/>
     </row>
     <row r="38" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="8">
+      <c r="B38" s="13">
         <v>30</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10" t="str">
+      <c r="C38" s="27"/>
+      <c r="D38" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E38" s="11" t="str">
+      <c r="E38" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12" t="str">
+      <c r="F38" s="35"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I38" s="15"/>
-      <c r="J38" s="14">
+      <c r="I38" s="14"/>
+      <c r="J38" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K38" s="15"/>
-      <c r="L38" s="14">
+      <c r="K38" s="14"/>
+      <c r="L38" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M38" s="15"/>
-      <c r="N38" s="14">
+      <c r="M38" s="14"/>
+      <c r="N38" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O38" s="16"/>
-      <c r="P38" s="14">
+      <c r="O38" s="15"/>
+      <c r="P38" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="14">
+      <c r="Q38" s="14"/>
+      <c r="R38" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S38" s="16"/>
-      <c r="T38" s="14">
+      <c r="S38" s="15"/>
+      <c r="T38" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U38" s="15"/>
-      <c r="V38" s="14">
+      <c r="U38" s="14"/>
+      <c r="V38" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W38" s="15"/>
-      <c r="X38" s="14">
+      <c r="W38" s="14"/>
+      <c r="X38" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y38" s="15"/>
-      <c r="Z38" s="14">
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA38" s="16"/>
-      <c r="AB38" s="14">
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC38" s="15"/>
-      <c r="AD38" s="14">
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE38" s="17"/>
+      <c r="AE38" s="16"/>
     </row>
     <row r="39" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="8">
+      <c r="B39" s="13">
         <v>31</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10" t="str">
+      <c r="C39" s="27"/>
+      <c r="D39" s="28" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E39" s="11" t="str">
+      <c r="E39" s="27" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12" t="str">
+      <c r="F39" s="35"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I39" s="15"/>
-      <c r="J39" s="14">
+      <c r="I39" s="14"/>
+      <c r="J39" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K39" s="15"/>
-      <c r="L39" s="14">
+      <c r="K39" s="14"/>
+      <c r="L39" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M39" s="15"/>
-      <c r="N39" s="14">
+      <c r="M39" s="14"/>
+      <c r="N39" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O39" s="16"/>
-      <c r="P39" s="14">
+      <c r="O39" s="15"/>
+      <c r="P39" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="14">
+      <c r="Q39" s="14"/>
+      <c r="R39" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S39" s="16"/>
-      <c r="T39" s="14">
+      <c r="S39" s="15"/>
+      <c r="T39" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U39" s="15"/>
-      <c r="V39" s="14">
+      <c r="U39" s="14"/>
+      <c r="V39" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W39" s="15"/>
-      <c r="X39" s="14">
+      <c r="W39" s="14"/>
+      <c r="X39" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="14">
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA39" s="16"/>
-      <c r="AB39" s="14">
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC39" s="15"/>
-      <c r="AD39" s="14">
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="31">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE39" s="17"/>
+      <c r="AE39" s="16"/>
     </row>
     <row r="40" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="9" t="str">
+      <c r="B40" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="32" t="str">
         <f>IF(ISERROR(AVERAGE(C29:C39)),"",AVERAGE(C29:C39))</f>
         <v/>
       </c>
-      <c r="D40" s="10" t="str">
+      <c r="D40" s="33" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E40" s="11" t="str">
+      <c r="E40" s="32" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="34">
         <f>SUM(F29:F39)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="34">
         <f t="shared" ref="G40:H40" si="31">SUM(G29:G39)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="34">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
@@ -5236,7 +5407,7 @@
         <f t="shared" ref="I40:AC40" si="32">SUM(I29:I39)</f>
         <v>0</v>
       </c>
-      <c r="J40" s="20">
+      <c r="J40" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -5244,7 +5415,7 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="L40" s="20">
+      <c r="L40" s="31">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -5252,7 +5423,7 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="N40" s="20">
+      <c r="N40" s="31">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -5260,7 +5431,7 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="P40" s="20">
+      <c r="P40" s="31">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -5268,7 +5439,7 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="R40" s="20">
+      <c r="R40" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5276,7 +5447,7 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="T40" s="20">
+      <c r="T40" s="31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -5284,7 +5455,7 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="V40" s="20">
+      <c r="V40" s="31">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -5292,7 +5463,7 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="X40" s="20">
+      <c r="X40" s="31">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
@@ -5300,7 +5471,7 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="Z40" s="20">
+      <c r="Z40" s="31">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
@@ -5308,7 +5479,7 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AB40" s="20">
+      <c r="AB40" s="31">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -5316,352 +5487,352 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AD40" s="20">
+      <c r="AD40" s="31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AE40" s="17"/>
+      <c r="AE40" s="16"/>
     </row>
     <row r="41" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="23" t="str">
+      <c r="B41" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="36" t="str">
         <f>IF(ISERROR(AVERAGE(C17,C28,C40)),"",AVERAGE(C17,C28,C40))</f>
         <v/>
       </c>
-      <c r="D41" s="24" t="str">
+      <c r="D41" s="20" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="E41" s="25" t="str">
+      <c r="E41" s="37" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F41" s="25">
+      <c r="F41" s="37">
         <f t="shared" ref="F41:G41" si="33">SUM(F17,F28,F40)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="25">
+      <c r="G41" s="37">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="H41" s="26">
+      <c r="H41" s="21">
         <f t="shared" ref="H41:AC41" si="34">SUM(H17,H28,H40)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="26">
+      <c r="I41" s="21">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J41" s="27">
+      <c r="J41" s="17">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K41" s="26">
+      <c r="K41" s="21">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="L41" s="27">
+      <c r="L41" s="17">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="M41" s="26">
+      <c r="M41" s="21">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="N41" s="27">
+      <c r="N41" s="17">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="O41" s="26">
+      <c r="O41" s="21">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="P41" s="28">
+      <c r="P41" s="17">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="26">
+      <c r="Q41" s="21">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="R41" s="27">
+      <c r="R41" s="17">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="S41" s="26">
+      <c r="S41" s="21">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="T41" s="28">
+      <c r="T41" s="17">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U41" s="26">
+      <c r="U41" s="21">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="V41" s="27">
+      <c r="V41" s="17">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="W41" s="26">
+      <c r="W41" s="21">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="X41" s="27">
+      <c r="X41" s="17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Y41" s="26">
+      <c r="Y41" s="21">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Z41" s="27">
+      <c r="Z41" s="17">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AA41" s="26">
+      <c r="AA41" s="21">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AB41" s="28">
+      <c r="AB41" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC41" s="26">
+      <c r="AC41" s="21">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AD41" s="27">
+      <c r="AD41" s="17">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AE41" s="29"/>
+      <c r="AE41" s="18"/>
     </row>
     <row r="42" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
+      <c r="B42" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
     </row>
     <row r="43" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="49"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="51"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="44"/>
     </row>
     <row r="44" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="52"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="54"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="47"/>
     </row>
     <row r="45" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="52"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="54"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="47"/>
     </row>
     <row r="46" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="52"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="54"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="47"/>
     </row>
     <row r="47" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="52"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="54"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="47"/>
     </row>
     <row r="48" spans="2:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="52"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="54"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="47"/>
     </row>
     <row r="49" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="52"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="54"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="47"/>
     </row>
     <row r="50" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="52"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="54"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="47"/>
     </row>
     <row r="51" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="52"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="54"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="47"/>
     </row>
     <row r="52" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="52"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="54"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="47"/>
     </row>
     <row r="53" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="52"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="54"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="47"/>
     </row>
     <row r="54" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="52"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="54"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="47"/>
     </row>
     <row r="55" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="52"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="54"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="47"/>
     </row>
     <row r="56" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="52"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="54"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="47"/>
     </row>
     <row r="57" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="52"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="54"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="47"/>
     </row>
     <row r="58" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="55"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="56"/>
-      <c r="K58" s="56"/>
-      <c r="L58" s="57"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -5691,7 +5862,7 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:Z3"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5704,7 +5875,7 @@
   <dimension ref="B1:XFB17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5716,299 +5887,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+    </row>
+    <row r="2" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-    </row>
-    <row r="2" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="66" t="s">
+      <c r="F2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="G2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="3" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="67"/>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="33"/>
-      <c r="C4" s="34" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38" t="str">
+    <row r="5" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64" t="str">
         <f t="shared" ref="D5:D16" si="0">IF(ISERROR(F5/G5),"",F5/G5*100)</f>
         <v/>
       </c>
-      <c r="E5" s="39" t="str">
+      <c r="E5" s="65" t="str">
         <f t="shared" ref="E5:E17" si="1">IF(ISERROR(D5/C5),"",IF(D5&gt;=C5,"√","×"))</f>
         <v/>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
-    </row>
-    <row r="6" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38" t="str">
+      <c r="F5" s="65"/>
+      <c r="G5" s="66"/>
+    </row>
+    <row r="6" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E6" s="39" t="str">
+      <c r="E6" s="65" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38" t="str">
+      <c r="F6" s="65"/>
+      <c r="G6" s="66"/>
+    </row>
+    <row r="7" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E7" s="39" t="str">
+      <c r="E7" s="65" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38" t="str">
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
+    </row>
+    <row r="8" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E8" s="39" t="str">
+      <c r="E8" s="65" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38" t="str">
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
+    </row>
+    <row r="9" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="64" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E9" s="39" t="str">
+      <c r="E9" s="65" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38" t="str">
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
+    </row>
+    <row r="10" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E10" s="39" t="str">
+      <c r="E10" s="65" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38" t="str">
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
+    </row>
+    <row r="11" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E11" s="39" t="str">
+      <c r="E11" s="65" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38" t="str">
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
+    </row>
+    <row r="12" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E12" s="39" t="str">
+      <c r="E12" s="65" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-    </row>
-    <row r="13" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38" t="str">
+      <c r="F12" s="65"/>
+      <c r="G12" s="66"/>
+    </row>
+    <row r="13" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E13" s="39" t="str">
+      <c r="E13" s="65" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40"/>
-    </row>
-    <row r="14" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38" t="str">
+      <c r="F13" s="65"/>
+      <c r="G13" s="66"/>
+    </row>
+    <row r="14" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="63"/>
+      <c r="D14" s="64" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E14" s="39" t="str">
+      <c r="E14" s="65" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38" t="str">
+      <c r="F14" s="65"/>
+      <c r="G14" s="66"/>
+    </row>
+    <row r="15" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="63"/>
+      <c r="D15" s="64" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E15" s="39" t="str">
+      <c r="E15" s="65" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-    </row>
-    <row r="16" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38" t="str">
+      <c r="F15" s="65"/>
+      <c r="G15" s="66"/>
+    </row>
+    <row r="16" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E16" s="39" t="str">
+      <c r="E16" s="65" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-    </row>
-    <row r="17" spans="2:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="42" t="str">
+      <c r="F16" s="65"/>
+      <c r="G16" s="66"/>
+    </row>
+    <row r="17" spans="2:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="67" t="str">
         <f>IF(ISERROR(AVERAGE(C5:C16)),"",AVERAGE(C5:C16))</f>
         <v/>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="68">
         <f>IF(G17=0,0,F17/G17*100)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="44" t="str">
+      <c r="E17" s="69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="69">
         <f>SUM(F5:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="70">
         <f>SUM(G5:G16)</f>
         <v>0</v>
       </c>
@@ -6018,7 +6189,7 @@
     <mergeCell ref="B1:Q1"/>
     <mergeCell ref="B2:B3"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6036,19 +6207,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.875" style="46"/>
+    <col min="1" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="46">
+      <c r="A1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="8">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6065,10 +6236,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.875" style="46"/>
+    <col min="1" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
